--- a/src/main/resources/Інженерія_програмного_забезпечення_БП-3_Осінь_2023–2024.xlsx
+++ b/src/main/resources/Інженерія_програмного_забезпечення_БП-3_Осінь_2023–2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F828B61D-7618-444B-AB0E-8B848C175BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FCBA18-AF23-4A49-BB57-2BB8FB310192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2360" windowWidth="28800" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
